--- a/backEnd/src/main/resources/dataFilieres.xlsx
+++ b/backEnd/src/main/resources/dataFilieres.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamid\Documents\GitHub\ProjetInnovation\PI_GESTION_EMPLOIS_TEMPS\backEnd\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\PI_GESTION_EMPLOIS_TEMPS\backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC819E1-0638-4F6B-9F79-9FEE21194026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648F50FE-501A-42AB-9155-FEDC9A42E816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{5E0B78FC-6F57-4D7D-B7B9-2CAC3030FF9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{5E0B78FC-6F57-4D7D-B7B9-2CAC3030FF9B}"/>
   </bookViews>
   <sheets>
     <sheet name="ENSEIGNANTS" sheetId="4" r:id="rId1"/>
@@ -919,14 +919,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -954,7 +954,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1252,11 +1252,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9931D10E-5844-45F1-BBD8-9F9833CB5A2C}">
   <dimension ref="C4:C73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="36.85546875" customWidth="1"/>
   </cols>
@@ -1624,11 +1624,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{779942B0-0B7F-4556-8888-7ED49D3C1B25}">
   <dimension ref="C4:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+    <sheetView topLeftCell="B13" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="36.85546875" customWidth="1"/>
     <col min="4" max="4" width="33.140625" customWidth="1"/>
@@ -1942,11 +1942,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9440788B-F075-4906-AEF1-F1D379CBA878}">
   <dimension ref="B1:G87"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="44" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -2018,13 +2018,13 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -2038,9 +2038,9 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="2" t="s">
         <v>135</v>
       </c>
@@ -2052,11 +2052,11 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="12"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -2070,9 +2070,9 @@
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="2" t="s">
         <v>136</v>
       </c>
@@ -2084,11 +2084,11 @@
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="12"/>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -2102,9 +2102,9 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="2" t="s">
         <v>137</v>
       </c>
@@ -2116,11 +2116,11 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="12"/>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>75</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -2134,9 +2134,9 @@
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="2" t="s">
         <v>139</v>
       </c>
@@ -2148,11 +2148,11 @@
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -2166,9 +2166,9 @@
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="2" t="s">
         <v>141</v>
       </c>
@@ -2180,11 +2180,11 @@
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="12"/>
-      <c r="C17" s="12" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -2198,9 +2198,9 @@
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="2" t="s">
         <v>143</v>
       </c>
@@ -2212,11 +2212,11 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="12"/>
-      <c r="C19" s="12" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>79</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -2230,9 +2230,9 @@
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="2" t="s">
         <v>145</v>
       </c>
@@ -2244,45 +2244,45 @@
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>36</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>146</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="G23" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
@@ -2294,11 +2294,11 @@
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="12"/>
-      <c r="C25" s="12" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>80</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -2312,9 +2312,9 @@
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="2" t="s">
         <v>147</v>
       </c>
@@ -2326,11 +2326,11 @@
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="12"/>
-      <c r="C27" s="12" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>33</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -2344,9 +2344,9 @@
       </c>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="2" t="s">
         <v>149</v>
       </c>
@@ -2358,11 +2358,11 @@
       </c>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="12"/>
-      <c r="C29" s="12" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -2376,9 +2376,9 @@
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="13"/>
       <c r="E30" s="2" t="s">
         <v>151</v>
       </c>
@@ -2390,11 +2390,11 @@
       </c>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="12"/>
-      <c r="C31" s="12" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -2408,9 +2408,9 @@
       </c>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="13"/>
       <c r="E32" s="2" t="s">
         <v>153</v>
       </c>
@@ -2422,11 +2422,11 @@
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="12"/>
-      <c r="C33" s="12" t="s">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -2440,9 +2440,9 @@
       </c>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="13"/>
       <c r="E34" s="2" t="s">
         <v>155</v>
       </c>
@@ -2454,11 +2454,11 @@
       </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="12"/>
-      <c r="C35" s="12" t="s">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -2472,9 +2472,9 @@
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="13"/>
       <c r="E36" s="2" t="s">
         <v>157</v>
       </c>
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="12"/>
-      <c r="C37" s="12" t="s">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="12" t="s">
         <v>82</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -2504,21 +2504,21 @@
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="13"/>
       <c r="E38" s="8"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="12" t="s">
         <v>33</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -2532,9 +2532,9 @@
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="13"/>
       <c r="E40" s="2" t="s">
         <v>159</v>
       </c>
@@ -2546,11 +2546,11 @@
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="12"/>
-      <c r="C41" s="12" t="s">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E41" s="2" t="s">
@@ -2564,9 +2564,9 @@
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="13"/>
       <c r="E42" s="2" t="s">
         <v>15</v>
       </c>
@@ -2578,11 +2578,11 @@
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="12"/>
-      <c r="C43" s="12" t="s">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -2596,9 +2596,9 @@
       </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="13"/>
       <c r="E44" s="2" t="s">
         <v>162</v>
       </c>
@@ -2610,11 +2610,11 @@
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="12"/>
-      <c r="C45" s="12" t="s">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="12" t="s">
         <v>80</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -2628,9 +2628,9 @@
       </c>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="13"/>
       <c r="E46" s="2" t="s">
         <v>16</v>
       </c>
@@ -2642,11 +2642,11 @@
       </c>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="12"/>
-      <c r="C47" s="12" t="s">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="12" t="s">
         <v>75</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -2660,9 +2660,9 @@
       </c>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="13"/>
       <c r="E48" s="2" t="s">
         <v>165</v>
       </c>
@@ -2674,11 +2674,11 @@
       </c>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="12"/>
-      <c r="C49" s="12" t="s">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -2692,9 +2692,9 @@
       </c>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="13"/>
       <c r="E50" s="2" t="s">
         <v>167</v>
       </c>
@@ -2706,11 +2706,11 @@
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="12"/>
-      <c r="C51" s="12" t="s">
+      <c r="B51" s="14"/>
+      <c r="C51" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="12" t="s">
         <v>79</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -2724,9 +2724,9 @@
       </c>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="13"/>
       <c r="E52" s="2" t="s">
         <v>169</v>
       </c>
@@ -2738,11 +2738,11 @@
       </c>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="12"/>
-      <c r="C53" s="12" t="s">
+      <c r="B53" s="14"/>
+      <c r="C53" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E53" s="2" t="s">
@@ -2754,21 +2754,21 @@
       </c>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="13"/>
       <c r="E54" s="8"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="12" t="s">
         <v>33</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -2782,9 +2782,9 @@
       </c>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="13"/>
       <c r="E56" s="2" t="s">
         <v>170</v>
       </c>
@@ -2796,11 +2796,11 @@
       </c>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="12"/>
-      <c r="C57" s="12" t="s">
+      <c r="B57" s="14"/>
+      <c r="C57" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="12" t="s">
         <v>75</v>
       </c>
       <c r="E57" s="2" t="s">
@@ -2814,9 +2814,9 @@
       </c>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="13"/>
       <c r="E58" s="2" t="s">
         <v>172</v>
       </c>
@@ -2828,11 +2828,11 @@
       </c>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="12"/>
-      <c r="C59" s="12" t="s">
+      <c r="B59" s="14"/>
+      <c r="C59" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -2846,9 +2846,9 @@
       </c>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="13"/>
       <c r="E60" s="2" t="s">
         <v>174</v>
       </c>
@@ -2860,11 +2860,11 @@
       </c>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="12"/>
-      <c r="C61" s="12" t="s">
+      <c r="B61" s="14"/>
+      <c r="C61" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="D61" s="12" t="s">
         <v>84</v>
       </c>
       <c r="E61" s="2" t="s">
@@ -2878,9 +2878,9 @@
       </c>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="13"/>
       <c r="E62" s="2" t="s">
         <v>176</v>
       </c>
@@ -2892,11 +2892,11 @@
       </c>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="12"/>
-      <c r="C63" s="12" t="s">
+      <c r="B63" s="14"/>
+      <c r="C63" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E63" s="2" t="s">
@@ -2910,9 +2910,9 @@
       </c>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="13"/>
       <c r="E64" s="2" t="s">
         <v>177</v>
       </c>
@@ -2924,11 +2924,11 @@
       </c>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="12"/>
-      <c r="C65" s="12" t="s">
+      <c r="B65" s="14"/>
+      <c r="C65" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -2942,9 +2942,9 @@
       </c>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="13"/>
       <c r="E66" s="2" t="s">
         <v>179</v>
       </c>
@@ -2956,11 +2956,11 @@
       </c>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="12"/>
-      <c r="C67" s="12" t="s">
+      <c r="B67" s="14"/>
+      <c r="C67" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -2974,9 +2974,9 @@
       </c>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="13"/>
       <c r="E68" s="2" t="s">
         <v>181</v>
       </c>
@@ -2988,11 +2988,11 @@
       </c>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="12"/>
-      <c r="C69" s="12" t="s">
+      <c r="B69" s="14"/>
+      <c r="C69" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="D69" s="13" t="s">
+      <c r="D69" s="12" t="s">
         <v>49</v>
       </c>
       <c r="E69" s="2" t="s">
@@ -3006,21 +3006,21 @@
       </c>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="13"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D71" s="13" t="s">
+      <c r="D71" s="12" t="s">
         <v>63</v>
       </c>
       <c r="E71" s="2" t="s">
@@ -3034,9 +3034,9 @@
       </c>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="14"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="13"/>
       <c r="E72" s="2" t="s">
         <v>184</v>
       </c>
@@ -3048,11 +3048,11 @@
       </c>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="12"/>
-      <c r="C73" s="12" t="s">
+      <c r="B73" s="14"/>
+      <c r="C73" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="D73" s="12" t="s">
         <v>33</v>
       </c>
       <c r="E73" s="2" t="s">
@@ -3066,9 +3066,9 @@
       </c>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="14"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="13"/>
       <c r="E74" s="2" t="s">
         <v>186</v>
       </c>
@@ -3080,11 +3080,11 @@
       </c>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="12"/>
-      <c r="C75" s="12" t="s">
+      <c r="B75" s="14"/>
+      <c r="C75" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D75" s="13" t="s">
+      <c r="D75" s="12" t="s">
         <v>33</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -3098,9 +3098,9 @@
       </c>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="13"/>
       <c r="E76" s="2" t="s">
         <v>188</v>
       </c>
@@ -3112,11 +3112,11 @@
       </c>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="12"/>
-      <c r="C77" s="12" t="s">
+      <c r="B77" s="14"/>
+      <c r="C77" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D77" s="13" t="s">
+      <c r="D77" s="12" t="s">
         <v>75</v>
       </c>
       <c r="E77" s="2" t="s">
@@ -3130,9 +3130,9 @@
       </c>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="14"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="13"/>
       <c r="E78" s="2" t="s">
         <v>190</v>
       </c>
@@ -3144,11 +3144,11 @@
       </c>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="12"/>
-      <c r="C79" s="12" t="s">
+      <c r="B79" s="14"/>
+      <c r="C79" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D79" s="13" t="s">
+      <c r="D79" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E79" s="2" t="s">
@@ -3162,9 +3162,9 @@
       </c>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="14"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="13"/>
       <c r="E80" s="2" t="s">
         <v>192</v>
       </c>
@@ -3176,11 +3176,11 @@
       </c>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="12"/>
-      <c r="C81" s="12" t="s">
+      <c r="B81" s="14"/>
+      <c r="C81" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D81" s="13" t="s">
+      <c r="D81" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -3194,9 +3194,9 @@
       </c>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="14"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="13"/>
       <c r="E82" s="2" t="s">
         <v>194</v>
       </c>
@@ -3208,11 +3208,11 @@
       </c>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="12"/>
-      <c r="C83" s="12" t="s">
+      <c r="B83" s="14"/>
+      <c r="C83" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D83" s="13" t="s">
+      <c r="D83" s="12" t="s">
         <v>67</v>
       </c>
       <c r="E83" s="2" t="s">
@@ -3226,9 +3226,9 @@
       </c>
     </row>
     <row r="84" spans="2:7">
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="14"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="13"/>
       <c r="E84" s="2" t="s">
         <v>195</v>
       </c>
@@ -3240,11 +3240,11 @@
       </c>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="12"/>
-      <c r="C85" s="12" t="s">
+      <c r="B85" s="14"/>
+      <c r="C85" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D85" s="13" t="s">
+      <c r="D85" s="12" t="s">
         <v>63</v>
       </c>
       <c r="E85" s="2" t="s">
@@ -3256,9 +3256,9 @@
       </c>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="14"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="13"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -3281,45 +3281,36 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B7:B22"/>
+    <mergeCell ref="B23:B38"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B39:B54"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="B71:B86"/>
     <mergeCell ref="C71:C72"/>
@@ -3336,36 +3327,45 @@
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="C59:C60"/>
     <mergeCell ref="C61:C62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B39:B54"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B7:B22"/>
-    <mergeCell ref="B23:B38"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="D77:D78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3388,11 +3388,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733F3413-EE9F-4359-8AAE-13133F084F61}">
   <dimension ref="B1:G87"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="D18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="47.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="43.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -3464,10 +3464,10 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="14" t="s">
         <v>92</v>
       </c>
       <c r="D7" s="15" t="s">
@@ -3484,8 +3484,8 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="16"/>
       <c r="E8" s="2" t="s">
         <v>135</v>
@@ -3498,11 +3498,11 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="12"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -3516,9 +3516,9 @@
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="2" t="s">
         <v>136</v>
       </c>
@@ -3530,11 +3530,11 @@
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="12"/>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -3548,9 +3548,9 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="2" t="s">
         <v>137</v>
       </c>
@@ -3562,11 +3562,11 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="12"/>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>75</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -3580,9 +3580,9 @@
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="2" t="s">
         <v>139</v>
       </c>
@@ -3594,11 +3594,11 @@
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -3612,9 +3612,9 @@
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="2" t="s">
         <v>141</v>
       </c>
@@ -3626,11 +3626,11 @@
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="12"/>
-      <c r="C17" s="12" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -3644,9 +3644,9 @@
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="2" t="s">
         <v>143</v>
       </c>
@@ -3658,11 +3658,11 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="12"/>
-      <c r="C19" s="12" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>79</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -3676,9 +3676,9 @@
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="2" t="s">
         <v>145</v>
       </c>
@@ -3690,45 +3690,45 @@
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>36</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>146</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="G23" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
@@ -3740,11 +3740,11 @@
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="12"/>
-      <c r="C25" s="12" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>80</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -3758,9 +3758,9 @@
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="2" t="s">
         <v>147</v>
       </c>
@@ -3772,11 +3772,11 @@
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="12"/>
-      <c r="C27" s="12" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>33</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -3790,9 +3790,9 @@
       </c>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="2" t="s">
         <v>149</v>
       </c>
@@ -3804,11 +3804,11 @@
       </c>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="12"/>
-      <c r="C29" s="12" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -3822,9 +3822,9 @@
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="13"/>
       <c r="E30" s="2" t="s">
         <v>151</v>
       </c>
@@ -3836,11 +3836,11 @@
       </c>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="12"/>
-      <c r="C31" s="12" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -3854,9 +3854,9 @@
       </c>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="13"/>
       <c r="E32" s="2" t="s">
         <v>153</v>
       </c>
@@ -3868,11 +3868,11 @@
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="12"/>
-      <c r="C33" s="12" t="s">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -3886,9 +3886,9 @@
       </c>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="13"/>
       <c r="E34" s="2" t="s">
         <v>155</v>
       </c>
@@ -3900,11 +3900,11 @@
       </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="12"/>
-      <c r="C35" s="12" t="s">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -3918,9 +3918,9 @@
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="13"/>
       <c r="E36" s="2" t="s">
         <v>157</v>
       </c>
@@ -3932,11 +3932,11 @@
       </c>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="12"/>
-      <c r="C37" s="12" t="s">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="12" t="s">
         <v>82</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -3950,21 +3950,21 @@
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="13"/>
       <c r="E38" s="8"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="12" t="s">
         <v>33</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -3978,9 +3978,9 @@
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="13"/>
       <c r="E40" s="2" t="s">
         <v>159</v>
       </c>
@@ -3992,11 +3992,11 @@
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="12"/>
-      <c r="C41" s="12" t="s">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E41" s="2" t="s">
@@ -4010,9 +4010,9 @@
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="13"/>
       <c r="E42" s="2" t="s">
         <v>15</v>
       </c>
@@ -4024,11 +4024,11 @@
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="12"/>
-      <c r="C43" s="12" t="s">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -4042,9 +4042,9 @@
       </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="13"/>
       <c r="E44" s="2" t="s">
         <v>162</v>
       </c>
@@ -4056,11 +4056,11 @@
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="12"/>
-      <c r="C45" s="12" t="s">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="12" t="s">
         <v>80</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -4074,9 +4074,9 @@
       </c>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="13"/>
       <c r="E46" s="2" t="s">
         <v>16</v>
       </c>
@@ -4088,11 +4088,11 @@
       </c>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="12"/>
-      <c r="C47" s="12" t="s">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="12" t="s">
         <v>75</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -4106,9 +4106,9 @@
       </c>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="13"/>
       <c r="E48" s="2" t="s">
         <v>165</v>
       </c>
@@ -4120,11 +4120,11 @@
       </c>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="12"/>
-      <c r="C49" s="12" t="s">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -4138,9 +4138,9 @@
       </c>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="13"/>
       <c r="E50" s="2" t="s">
         <v>167</v>
       </c>
@@ -4152,11 +4152,11 @@
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="12"/>
-      <c r="C51" s="12" t="s">
+      <c r="B51" s="14"/>
+      <c r="C51" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="12" t="s">
         <v>79</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -4170,9 +4170,9 @@
       </c>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="13"/>
       <c r="E52" s="2" t="s">
         <v>169</v>
       </c>
@@ -4184,11 +4184,11 @@
       </c>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="12"/>
-      <c r="C53" s="12" t="s">
+      <c r="B53" s="14"/>
+      <c r="C53" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E53" s="2" t="s">
@@ -4200,21 +4200,21 @@
       </c>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="13"/>
       <c r="E54" s="8"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="12" t="s">
         <v>33</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -4228,9 +4228,9 @@
       </c>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="13"/>
       <c r="E56" s="2" t="s">
         <v>170</v>
       </c>
@@ -4242,11 +4242,11 @@
       </c>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="12"/>
-      <c r="C57" s="12" t="s">
+      <c r="B57" s="14"/>
+      <c r="C57" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E57" s="10" t="s">
@@ -4260,9 +4260,9 @@
       </c>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="13"/>
       <c r="E58" s="2" t="s">
         <v>211</v>
       </c>
@@ -4274,11 +4274,11 @@
       </c>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="12"/>
-      <c r="C59" s="12" t="s">
+      <c r="B59" s="14"/>
+      <c r="C59" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="12" t="s">
         <v>205</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -4292,9 +4292,9 @@
       </c>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="13"/>
       <c r="E60" s="2" t="s">
         <v>208</v>
       </c>
@@ -4306,11 +4306,11 @@
       </c>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="12"/>
-      <c r="C61" s="12" t="s">
+      <c r="B61" s="14"/>
+      <c r="C61" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="D61" s="12" t="s">
         <v>84</v>
       </c>
       <c r="E61" s="2" t="s">
@@ -4324,9 +4324,9 @@
       </c>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="13"/>
       <c r="E62" s="2" t="s">
         <v>176</v>
       </c>
@@ -4338,11 +4338,11 @@
       </c>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="12"/>
-      <c r="C63" s="12" t="s">
+      <c r="B63" s="14"/>
+      <c r="C63" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="12" t="s">
         <v>206</v>
       </c>
       <c r="E63" s="2" t="s">
@@ -4356,9 +4356,9 @@
       </c>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="13"/>
       <c r="E64" s="2" t="s">
         <v>177</v>
       </c>
@@ -4370,11 +4370,11 @@
       </c>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="12"/>
-      <c r="C65" s="12" t="s">
+      <c r="B65" s="14"/>
+      <c r="C65" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -4388,9 +4388,9 @@
       </c>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="13"/>
       <c r="E66" s="2" t="s">
         <v>179</v>
       </c>
@@ -4402,11 +4402,11 @@
       </c>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="12"/>
-      <c r="C67" s="12" t="s">
+      <c r="B67" s="14"/>
+      <c r="C67" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -4420,9 +4420,9 @@
       </c>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="13"/>
       <c r="E68" s="2" t="s">
         <v>181</v>
       </c>
@@ -4434,11 +4434,11 @@
       </c>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="12"/>
-      <c r="C69" s="12" t="s">
+      <c r="B69" s="14"/>
+      <c r="C69" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="D69" s="13" t="s">
+      <c r="D69" s="12" t="s">
         <v>49</v>
       </c>
       <c r="E69" s="2" t="s">
@@ -4452,21 +4452,21 @@
       </c>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="13"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D71" s="13" t="s">
+      <c r="D71" s="12" t="s">
         <v>63</v>
       </c>
       <c r="E71" s="2" t="s">
@@ -4480,9 +4480,9 @@
       </c>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="14"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="13"/>
       <c r="E72" s="2" t="s">
         <v>184</v>
       </c>
@@ -4494,11 +4494,11 @@
       </c>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="12"/>
-      <c r="C73" s="12" t="s">
+      <c r="B73" s="14"/>
+      <c r="C73" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="D73" s="12" t="s">
         <v>33</v>
       </c>
       <c r="E73" s="2" t="s">
@@ -4512,9 +4512,9 @@
       </c>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="14"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="13"/>
       <c r="E74" s="2" t="s">
         <v>186</v>
       </c>
@@ -4526,11 +4526,11 @@
       </c>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="12"/>
-      <c r="C75" s="12" t="s">
+      <c r="B75" s="14"/>
+      <c r="C75" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D75" s="13" t="s">
+      <c r="D75" s="12" t="s">
         <v>33</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -4544,9 +4544,9 @@
       </c>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="13"/>
       <c r="E76" s="2" t="s">
         <v>188</v>
       </c>
@@ -4558,11 +4558,11 @@
       </c>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="12"/>
-      <c r="C77" s="12" t="s">
+      <c r="B77" s="14"/>
+      <c r="C77" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D77" s="13" t="s">
+      <c r="D77" s="12" t="s">
         <v>75</v>
       </c>
       <c r="E77" s="2" t="s">
@@ -4576,9 +4576,9 @@
       </c>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="14"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="13"/>
       <c r="E78" s="2" t="s">
         <v>190</v>
       </c>
@@ -4590,11 +4590,11 @@
       </c>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="12"/>
-      <c r="C79" s="12" t="s">
+      <c r="B79" s="14"/>
+      <c r="C79" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D79" s="13" t="s">
+      <c r="D79" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E79" s="2" t="s">
@@ -4608,9 +4608,9 @@
       </c>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="14"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="13"/>
       <c r="E80" s="2" t="s">
         <v>192</v>
       </c>
@@ -4622,11 +4622,11 @@
       </c>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="12"/>
-      <c r="C81" s="12" t="s">
+      <c r="B81" s="14"/>
+      <c r="C81" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D81" s="13" t="s">
+      <c r="D81" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -4640,9 +4640,9 @@
       </c>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="14"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="13"/>
       <c r="E82" s="2" t="s">
         <v>194</v>
       </c>
@@ -4654,11 +4654,11 @@
       </c>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="12"/>
-      <c r="C83" s="12" t="s">
+      <c r="B83" s="14"/>
+      <c r="C83" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D83" s="13" t="s">
+      <c r="D83" s="12" t="s">
         <v>67</v>
       </c>
       <c r="E83" s="2" t="s">
@@ -4672,9 +4672,9 @@
       </c>
     </row>
     <row r="84" spans="2:7">
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="14"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="13"/>
       <c r="E84" s="2" t="s">
         <v>195</v>
       </c>
@@ -4686,11 +4686,11 @@
       </c>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="12"/>
-      <c r="C85" s="12" t="s">
+      <c r="B85" s="14"/>
+      <c r="C85" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D85" s="13" t="s">
+      <c r="D85" s="12" t="s">
         <v>63</v>
       </c>
       <c r="E85" s="2" t="s">
@@ -4702,9 +4702,9 @@
       </c>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="14"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="13"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -4727,6 +4727,75 @@
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="B71:B86"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="B55:B70"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="B39:B54"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="B23:B38"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="B7:B22"/>
@@ -4743,75 +4812,6 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="B23:B38"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="B39:B54"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="B55:B70"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="B71:B86"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/backEnd/src/main/resources/dataFilieres.xlsx
+++ b/backEnd/src/main/resources/dataFilieres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\PI_GESTION_EMPLOIS_TEMPS\backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648F50FE-501A-42AB-9155-FEDC9A42E816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2CF0C1-A0D3-4B87-B12B-5408450A6FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{5E0B78FC-6F57-4D7D-B7B9-2CAC3030FF9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{5E0B78FC-6F57-4D7D-B7B9-2CAC3030FF9B}"/>
   </bookViews>
   <sheets>
     <sheet name="ENSEIGNANTS" sheetId="4" r:id="rId1"/>
@@ -18,17 +18,26 @@
     <sheet name="FI GLSID" sheetId="1" r:id="rId3"/>
     <sheet name="FI II-BDCC" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="397">
   <si>
     <t>S1</t>
   </si>
@@ -51,9 +60,6 @@
     <t>S5</t>
   </si>
   <si>
-    <t>S6</t>
-  </si>
-  <si>
     <t>GLSID</t>
   </si>
   <si>
@@ -423,9 +429,6 @@
     <t>Stage ingénieur</t>
   </si>
   <si>
-    <t>Stages PFE</t>
-  </si>
-  <si>
     <t>Coordonnateur Filière</t>
   </si>
   <si>
@@ -769,13 +772,469 @@
   </si>
   <si>
     <t>Capacite</t>
+  </si>
+  <si>
+    <t>Nombre Eudiant</t>
+  </si>
+  <si>
+    <t>spécialité</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>informatique</t>
+  </si>
+  <si>
+    <t>economie</t>
+  </si>
+  <si>
+    <t>telephone</t>
+  </si>
+  <si>
+    <t>06 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>7 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>8 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>9 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>10 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>11 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>12 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>13 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>14 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>15 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>16 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>17 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>18 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>19 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>20 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>21 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>22 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>23 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>24 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>25 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>26 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>27 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>28 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>29 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>30 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>31 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>32 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>33 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>34 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>35 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>36 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>37 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>38 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>39 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>40 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>41 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>42 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>43 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>44 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>45 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>46 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>47 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>48 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>49 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>50 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>51 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>52 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>53 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>54 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>55 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>56 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>57 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>58 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>59 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>60 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>61 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>62 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>63 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>64 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>65 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>66 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>67 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>68 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>69 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>70 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>71 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>72 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>73 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t>74 49 94 91 59 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> email</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>CNI</t>
+  </si>
+  <si>
+    <t>PA 12345</t>
+  </si>
+  <si>
+    <t>PA 12346</t>
+  </si>
+  <si>
+    <t>PA 12347</t>
+  </si>
+  <si>
+    <t>PA 12348</t>
+  </si>
+  <si>
+    <t>PA 12349</t>
+  </si>
+  <si>
+    <t>PA 12350</t>
+  </si>
+  <si>
+    <t>PA 12351</t>
+  </si>
+  <si>
+    <t>PA 12352</t>
+  </si>
+  <si>
+    <t>PA 12353</t>
+  </si>
+  <si>
+    <t>PA 12354</t>
+  </si>
+  <si>
+    <t>PA 12355</t>
+  </si>
+  <si>
+    <t>PA 12356</t>
+  </si>
+  <si>
+    <t>PA 12357</t>
+  </si>
+  <si>
+    <t>PA 12358</t>
+  </si>
+  <si>
+    <t>PA 12359</t>
+  </si>
+  <si>
+    <t>PA 12360</t>
+  </si>
+  <si>
+    <t>PA 12361</t>
+  </si>
+  <si>
+    <t>PA 12362</t>
+  </si>
+  <si>
+    <t>PA 12363</t>
+  </si>
+  <si>
+    <t>PA 12364</t>
+  </si>
+  <si>
+    <t>PA 12365</t>
+  </si>
+  <si>
+    <t>PA 12366</t>
+  </si>
+  <si>
+    <t>PA 12367</t>
+  </si>
+  <si>
+    <t>PA 12368</t>
+  </si>
+  <si>
+    <t>PA 12369</t>
+  </si>
+  <si>
+    <t>PA 12370</t>
+  </si>
+  <si>
+    <t>PA 12371</t>
+  </si>
+  <si>
+    <t>PA 12372</t>
+  </si>
+  <si>
+    <t>PA 12373</t>
+  </si>
+  <si>
+    <t>PA 12374</t>
+  </si>
+  <si>
+    <t>PA 12375</t>
+  </si>
+  <si>
+    <t>PA 12376</t>
+  </si>
+  <si>
+    <t>PA 12377</t>
+  </si>
+  <si>
+    <t>PA 12378</t>
+  </si>
+  <si>
+    <t>PA 12379</t>
+  </si>
+  <si>
+    <t>PA 12380</t>
+  </si>
+  <si>
+    <t>PA 12381</t>
+  </si>
+  <si>
+    <t>PA 12382</t>
+  </si>
+  <si>
+    <t>PA 12383</t>
+  </si>
+  <si>
+    <t>PA 12384</t>
+  </si>
+  <si>
+    <t>PA 12385</t>
+  </si>
+  <si>
+    <t>PA 12386</t>
+  </si>
+  <si>
+    <t>PA 12387</t>
+  </si>
+  <si>
+    <t>PA 12388</t>
+  </si>
+  <si>
+    <t>PA 12389</t>
+  </si>
+  <si>
+    <t>PA 12390</t>
+  </si>
+  <si>
+    <t>PA 12391</t>
+  </si>
+  <si>
+    <t>PA 12392</t>
+  </si>
+  <si>
+    <t>PA 12393</t>
+  </si>
+  <si>
+    <t>PA 12394</t>
+  </si>
+  <si>
+    <t>PA 12395</t>
+  </si>
+  <si>
+    <t>PA 12396</t>
+  </si>
+  <si>
+    <t>PA 12397</t>
+  </si>
+  <si>
+    <t>PA 12398</t>
+  </si>
+  <si>
+    <t>PA 12399</t>
+  </si>
+  <si>
+    <t>PA 12400</t>
+  </si>
+  <si>
+    <t>PA 12401</t>
+  </si>
+  <si>
+    <t>PA 12402</t>
+  </si>
+  <si>
+    <t>PA 12403</t>
+  </si>
+  <si>
+    <t>PA 12404</t>
+  </si>
+  <si>
+    <t>PA 12405</t>
+  </si>
+  <si>
+    <t>PA 12406</t>
+  </si>
+  <si>
+    <t>PA 12407</t>
+  </si>
+  <si>
+    <t>PA 12408</t>
+  </si>
+  <si>
+    <t>PA 12409</t>
+  </si>
+  <si>
+    <t>PA 12410</t>
+  </si>
+  <si>
+    <t>PA 12411</t>
+  </si>
+  <si>
+    <t>PA 12412</t>
+  </si>
+  <si>
+    <t>PA 12413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Civilité</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Mme</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>aaaa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -808,6 +1267,14 @@
       <sz val="10"/>
       <color rgb="FF871094"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -891,10 +1358,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -907,9 +1375,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -919,14 +1384,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -937,7 +1405,8 @@
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1250,373 +1719,1990 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9931D10E-5844-45F1-BBD8-9F9833CB5A2C}">
-  <dimension ref="C4:C73"/>
+  <dimension ref="C4:J73"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="36.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="54.28515625" customWidth="1"/>
+    <col min="7" max="7" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:3">
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3">
+    <row r="4" spans="3:10">
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10">
       <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F5" s="13" t="str">
+        <f>_xlfn.CONCAT(SUBSTITUTE(C5, "_", "."),"@etu.enset-media.ac.ma")</f>
+        <v>ABBADI.LOUBNA@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G5" t="str">
+        <f>F5</f>
+        <v>ABBADI.LOUBNA@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H5" t="s">
+        <v>323</v>
+      </c>
+      <c r="I5" t="s">
+        <v>394</v>
+      </c>
+      <c r="J5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10">
+      <c r="C6" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="3:3">
-      <c r="C6" s="2" t="s">
+      <c r="D6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F6" s="13" t="str">
+        <f t="shared" ref="F6:F69" si="0">_xlfn.CONCAT(SUBSTITUTE(C6, "_", "."),"@etu.enset-media.ac.ma")</f>
+        <v>ABTAL.ESSAID@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G69" si="1">F6</f>
+        <v>ABTAL.ESSAID@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H6" t="s">
+        <v>324</v>
+      </c>
+      <c r="I6" t="s">
+        <v>393</v>
+      </c>
+      <c r="J6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10">
+      <c r="C7" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="3:3">
-      <c r="C7" s="2" t="s">
+      <c r="D7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F7" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>ACHOUYAB.EL HASSAN@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>ACHOUYAB.EL HASSAN@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H7" t="s">
+        <v>325</v>
+      </c>
+      <c r="I7" t="s">
+        <v>393</v>
+      </c>
+      <c r="J7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10">
+      <c r="C8" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="3:3">
-      <c r="C8" s="2" t="s">
+      <c r="D8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E8" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>AHRIZ.SOUAD@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>AHRIZ.SOUAD@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H8" t="s">
+        <v>326</v>
+      </c>
+      <c r="I8" t="s">
+        <v>393</v>
+      </c>
+      <c r="J8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10">
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E9" t="s">
+        <v>255</v>
+      </c>
+      <c r="F9" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>AKEF.FATIHA@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>AKEF.FATIHA@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H9" t="s">
+        <v>327</v>
+      </c>
+      <c r="I9" t="s">
+        <v>394</v>
+      </c>
+      <c r="J9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10">
+      <c r="C10" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="3:3">
-      <c r="C9" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3">
-      <c r="C10" s="2" t="s">
+      <c r="D10" t="s">
+        <v>248</v>
+      </c>
+      <c r="E10" t="s">
+        <v>256</v>
+      </c>
+      <c r="F10" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>AMIFI.HAMID@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>AMIFI.HAMID@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H10" t="s">
+        <v>328</v>
+      </c>
+      <c r="I10" t="s">
+        <v>393</v>
+      </c>
+      <c r="J10" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10">
+      <c r="C11" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" s="2" t="s">
+      <c r="D11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E11" t="s">
+        <v>257</v>
+      </c>
+      <c r="F11" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>ANTRA.LOUBNA@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>ANTRA.LOUBNA@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H11" t="s">
+        <v>329</v>
+      </c>
+      <c r="I11" t="s">
+        <v>394</v>
+      </c>
+      <c r="J11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10">
+      <c r="C12" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="3:3">
-      <c r="C12" s="2" t="s">
+      <c r="D12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E12" t="s">
+        <v>258</v>
+      </c>
+      <c r="F12" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>AOULA.ES-SAADIA@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>AOULA.ES-SAADIA@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H12" t="s">
+        <v>330</v>
+      </c>
+      <c r="I12" t="s">
+        <v>394</v>
+      </c>
+      <c r="J12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10">
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>249</v>
+      </c>
+      <c r="E13" t="s">
+        <v>259</v>
+      </c>
+      <c r="F13" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>BAHATTI.LHOUSSAIN@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>BAHATTI.LHOUSSAIN@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H13" t="s">
+        <v>331</v>
+      </c>
+      <c r="I13" t="s">
+        <v>393</v>
+      </c>
+      <c r="J13" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10">
+      <c r="C14" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13" s="2" t="s">
+      <c r="D14" t="s">
+        <v>249</v>
+      </c>
+      <c r="E14" t="s">
+        <v>260</v>
+      </c>
+      <c r="F14" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>BAHRAR.BENNASSER@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>BAHRAR.BENNASSER@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H14" t="s">
+        <v>332</v>
+      </c>
+      <c r="I14" t="s">
+        <v>393</v>
+      </c>
+      <c r="J14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10">
+      <c r="C15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>249</v>
+      </c>
+      <c r="E15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F15" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>BAHYAOUI.LATIFA@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>BAHYAOUI.LATIFA@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H15" t="s">
+        <v>333</v>
+      </c>
+      <c r="I15" t="s">
+        <v>394</v>
+      </c>
+      <c r="J15" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10">
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>249</v>
+      </c>
+      <c r="E16" t="s">
+        <v>262</v>
+      </c>
+      <c r="F16" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>BAKKOURY.JAMILA@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>BAKKOURY.JAMILA@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H16" t="s">
+        <v>334</v>
+      </c>
+      <c r="I16" t="s">
+        <v>394</v>
+      </c>
+      <c r="J16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="3:3">
-      <c r="C14" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3">
-      <c r="C16" s="2" t="s">
+      <c r="D17" t="s">
+        <v>249</v>
+      </c>
+      <c r="E17" t="s">
+        <v>263</v>
+      </c>
+      <c r="F17" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>BELAFHAILI.MOHAMED@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>BELAFHAILI.MOHAMED@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H17" t="s">
+        <v>335</v>
+      </c>
+      <c r="I17" t="s">
+        <v>393</v>
+      </c>
+      <c r="J17" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>249</v>
+      </c>
+      <c r="E18" t="s">
+        <v>264</v>
+      </c>
+      <c r="F18" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>BEN HOUAD.MOHAMED@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>BEN HOUAD.MOHAMED@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H18" t="s">
+        <v>336</v>
+      </c>
+      <c r="I18" t="s">
+        <v>393</v>
+      </c>
+      <c r="J18" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>249</v>
+      </c>
+      <c r="E19" t="s">
+        <v>265</v>
+      </c>
+      <c r="F19" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>BENCHARA.EL HOUSSINE@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>BENCHARA.EL HOUSSINE@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H19" t="s">
+        <v>337</v>
+      </c>
+      <c r="I19" t="s">
+        <v>393</v>
+      </c>
+      <c r="J19" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10">
+      <c r="C20" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="2" t="s">
+      <c r="D20" t="s">
+        <v>249</v>
+      </c>
+      <c r="E20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F20" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>BENMOUSSA.NEZHA@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>BENMOUSSA.NEZHA@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H20" t="s">
+        <v>338</v>
+      </c>
+      <c r="I20" t="s">
+        <v>394</v>
+      </c>
+      <c r="J20" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10">
+      <c r="C21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" t="s">
+        <v>249</v>
+      </c>
+      <c r="E21" t="s">
+        <v>267</v>
+      </c>
+      <c r="F21" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>BERRADA ALLAM.RABIA@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>BERRADA ALLAM.RABIA@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H21" t="s">
+        <v>339</v>
+      </c>
+      <c r="I21" t="s">
+        <v>394</v>
+      </c>
+      <c r="J21" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>249</v>
+      </c>
+      <c r="E22" t="s">
+        <v>268</v>
+      </c>
+      <c r="F22" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>BIFADENE.ABDELKADER@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>BIFADENE.ABDELKADER@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H22" t="s">
+        <v>340</v>
+      </c>
+      <c r="I22" t="s">
+        <v>393</v>
+      </c>
+      <c r="J22" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>249</v>
+      </c>
+      <c r="E23" t="s">
+        <v>269</v>
+      </c>
+      <c r="F23" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>BOUAZZAMA.YOUSSEF@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>BOUAZZAMA.YOUSSEF@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H23" t="s">
+        <v>341</v>
+      </c>
+      <c r="I23" t="s">
+        <v>393</v>
+      </c>
+      <c r="J23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>249</v>
+      </c>
+      <c r="E24" t="s">
+        <v>270</v>
+      </c>
+      <c r="F24" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>CHAHM.HANANE@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>CHAHM.HANANE@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H24" t="s">
+        <v>342</v>
+      </c>
+      <c r="I24" t="s">
+        <v>394</v>
+      </c>
+      <c r="J24" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="C25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>249</v>
+      </c>
+      <c r="E25" t="s">
+        <v>271</v>
+      </c>
+      <c r="F25" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>DAAIF.ABDELAZIZ@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>DAAIF.ABDELAZIZ@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H25" t="s">
+        <v>343</v>
+      </c>
+      <c r="I25" t="s">
+        <v>393</v>
+      </c>
+      <c r="J25" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="C26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>247</v>
+      </c>
+      <c r="E26" t="s">
+        <v>272</v>
+      </c>
+      <c r="F26" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>ECH CHHIBAT.My EL HOUSSINE@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>ECH CHHIBAT.My EL HOUSSINE@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H26" t="s">
+        <v>344</v>
+      </c>
+      <c r="I26" t="s">
+        <v>393</v>
+      </c>
+      <c r="J26" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10">
+      <c r="C27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" t="s">
+        <v>247</v>
+      </c>
+      <c r="E27" t="s">
+        <v>273</v>
+      </c>
+      <c r="F27" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>EL ABBASSI.FATIMA@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>EL ABBASSI.FATIMA@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H27" t="s">
+        <v>345</v>
+      </c>
+      <c r="I27" t="s">
+        <v>394</v>
+      </c>
+      <c r="J27" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10">
+      <c r="C28" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="2" t="s">
+      <c r="D28" t="s">
+        <v>247</v>
+      </c>
+      <c r="E28" t="s">
+        <v>274</v>
+      </c>
+      <c r="F28" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>EL ABDIOUI.ABDELJALIL@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>EL ABDIOUI.ABDELJALIL@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H28" t="s">
+        <v>346</v>
+      </c>
+      <c r="I28" t="s">
+        <v>393</v>
+      </c>
+      <c r="J28" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10">
+      <c r="C29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" t="s">
+        <v>247</v>
+      </c>
+      <c r="E29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F29" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>EL FIGHA.ABDENNASSAR@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>EL FIGHA.ABDENNASSAR@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H29" t="s">
+        <v>347</v>
+      </c>
+      <c r="I29" t="s">
+        <v>393</v>
+      </c>
+      <c r="J29" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10">
+      <c r="C30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" t="s">
+        <v>247</v>
+      </c>
+      <c r="E30" t="s">
+        <v>276</v>
+      </c>
+      <c r="F30" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>EL KHAILI.MOHAMED@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>EL KHAILI.MOHAMED@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H30" t="s">
+        <v>348</v>
+      </c>
+      <c r="I30" t="s">
+        <v>393</v>
+      </c>
+      <c r="J30" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10">
+      <c r="C31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" t="s">
+        <v>247</v>
+      </c>
+      <c r="E31" t="s">
+        <v>277</v>
+      </c>
+      <c r="F31" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>EL MAGRI.ABDELMOUNIME@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>EL MAGRI.ABDELMOUNIME@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H31" t="s">
+        <v>349</v>
+      </c>
+      <c r="I31" t="s">
+        <v>393</v>
+      </c>
+      <c r="J31" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10">
+      <c r="C32" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3">
-      <c r="C25" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" s="2" t="s">
+      <c r="D32" t="s">
+        <v>247</v>
+      </c>
+      <c r="E32" t="s">
+        <v>278</v>
+      </c>
+      <c r="F32" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>EL MAHJOUBI.JAOUAD@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>EL MAHJOUBI.JAOUAD@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H32" t="s">
+        <v>350</v>
+      </c>
+      <c r="I32" t="s">
+        <v>393</v>
+      </c>
+      <c r="J32" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10">
+      <c r="C33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" t="s">
+        <v>247</v>
+      </c>
+      <c r="E33" t="s">
+        <v>279</v>
+      </c>
+      <c r="F33" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>EL MAJID.ZAYER@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>EL MAJID.ZAYER@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H33" t="s">
+        <v>351</v>
+      </c>
+      <c r="I33" t="s">
+        <v>393</v>
+      </c>
+      <c r="J33" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10">
+      <c r="C34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s">
+        <v>247</v>
+      </c>
+      <c r="E34" t="s">
+        <v>280</v>
+      </c>
+      <c r="F34" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>EL OUAFI LALLA.MARIEM@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G34" t="str">
+        <f>F34</f>
+        <v>EL OUAFI LALLA.MARIEM@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H34" t="s">
+        <v>352</v>
+      </c>
+      <c r="I34" t="s">
+        <v>394</v>
+      </c>
+      <c r="J34" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10">
+      <c r="C35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" t="s">
+        <v>247</v>
+      </c>
+      <c r="E35" t="s">
+        <v>281</v>
+      </c>
+      <c r="F35" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>HAMMADI.CHAITI@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>HAMMADI.CHAITI@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H35" t="s">
+        <v>353</v>
+      </c>
+      <c r="I35" t="s">
+        <v>393</v>
+      </c>
+      <c r="J35" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10">
+      <c r="C36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" t="s">
+        <v>247</v>
+      </c>
+      <c r="E36" t="s">
+        <v>282</v>
+      </c>
+      <c r="F36" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>HAMZA.ABDELWAHED@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>HAMZA.ABDELWAHED@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H36" t="s">
+        <v>354</v>
+      </c>
+      <c r="I36" t="s">
+        <v>393</v>
+      </c>
+      <c r="J36" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10">
+      <c r="C37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>247</v>
+      </c>
+      <c r="E37" t="s">
+        <v>283</v>
+      </c>
+      <c r="F37" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>IDRISSI.HAMIDA@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>IDRISSI.HAMIDA@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H37" t="s">
+        <v>355</v>
+      </c>
+      <c r="I37" t="s">
+        <v>394</v>
+      </c>
+      <c r="J37" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10">
+      <c r="C38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" t="s">
+        <v>247</v>
+      </c>
+      <c r="E38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>ILLOUSSAMEN.EL HOSSEIN@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>ILLOUSSAMEN.EL HOSSEIN@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H38" t="s">
+        <v>356</v>
+      </c>
+      <c r="I38" t="s">
+        <v>393</v>
+      </c>
+      <c r="J38" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10">
+      <c r="C39" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" t="s">
+        <v>247</v>
+      </c>
+      <c r="E39" t="s">
+        <v>285</v>
+      </c>
+      <c r="F39" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>JAMMOUKH.MUSTAPHA@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>JAMMOUKH.MUSTAPHA@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H39" t="s">
+        <v>357</v>
+      </c>
+      <c r="I39" t="s">
+        <v>393</v>
+      </c>
+      <c r="J39" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10">
+      <c r="C40" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" t="s">
+        <v>247</v>
+      </c>
+      <c r="E40" t="s">
+        <v>286</v>
+      </c>
+      <c r="F40" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>KANDRI RODY.OMAR@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v>KANDRI RODY.OMAR@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H40" t="s">
+        <v>358</v>
+      </c>
+      <c r="I40" t="s">
+        <v>393</v>
+      </c>
+      <c r="J40" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10">
+      <c r="C41" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D41" t="s">
+        <v>247</v>
+      </c>
+      <c r="E41" t="s">
+        <v>287</v>
+      </c>
+      <c r="F41" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>KHANFAR.FATIMA EZZAHRA@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>KHANFAR.FATIMA EZZAHRA@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H41" t="s">
+        <v>359</v>
+      </c>
+      <c r="I41" t="s">
+        <v>394</v>
+      </c>
+      <c r="J41" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10">
+      <c r="C42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" t="s">
+        <v>247</v>
+      </c>
+      <c r="E42" t="s">
+        <v>288</v>
+      </c>
+      <c r="F42" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>KHIAT.AZEDDINE@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>KHIAT.AZEDDINE@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H42" t="s">
+        <v>360</v>
+      </c>
+      <c r="I42" t="s">
+        <v>393</v>
+      </c>
+      <c r="J42" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10">
+      <c r="C43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" t="s">
+        <v>247</v>
+      </c>
+      <c r="E43" t="s">
+        <v>289</v>
+      </c>
+      <c r="F43" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>LAIDI.ZAHIRI@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v>LAIDI.ZAHIRI@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H43" t="s">
+        <v>361</v>
+      </c>
+      <c r="I43" t="s">
+        <v>393</v>
+      </c>
+      <c r="J43" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10">
+      <c r="C44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" t="s">
+        <v>248</v>
+      </c>
+      <c r="E44" t="s">
+        <v>290</v>
+      </c>
+      <c r="F44" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>LAJOUAD.RACHID@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>LAJOUAD.RACHID@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H44" t="s">
+        <v>362</v>
+      </c>
+      <c r="I44" t="s">
+        <v>393</v>
+      </c>
+      <c r="J44" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10">
+      <c r="C45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" t="s">
+        <v>248</v>
+      </c>
+      <c r="E45" t="s">
+        <v>291</v>
+      </c>
+      <c r="F45" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>LAMGHANI.MOHAMED@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v>LAMGHANI.MOHAMED@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H45" t="s">
+        <v>363</v>
+      </c>
+      <c r="I45" t="s">
+        <v>393</v>
+      </c>
+      <c r="J45" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10">
+      <c r="C46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" t="s">
+        <v>248</v>
+      </c>
+      <c r="E46" t="s">
+        <v>292</v>
+      </c>
+      <c r="F46" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>MANSOURI.KHALIFA@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v>MANSOURI.KHALIFA@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H46" t="s">
+        <v>364</v>
+      </c>
+      <c r="I46" t="s">
+        <v>393</v>
+      </c>
+      <c r="J46" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10">
+      <c r="C47" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" t="s">
+        <v>248</v>
+      </c>
+      <c r="E47" t="s">
+        <v>293</v>
+      </c>
+      <c r="F47" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>MESTARI.MOHAMMED@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="1"/>
+        <v>MESTARI.MOHAMMED@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H47" t="s">
+        <v>365</v>
+      </c>
+      <c r="I47" t="s">
+        <v>393</v>
+      </c>
+      <c r="J47" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10">
+      <c r="C48" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" t="s">
+        <v>248</v>
+      </c>
+      <c r="E48" t="s">
+        <v>294</v>
+      </c>
+      <c r="F48" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>MOUDHICH.ABDELHAK@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="1"/>
+        <v>MOUDHICH.ABDELHAK@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H48" t="s">
+        <v>366</v>
+      </c>
+      <c r="I48" t="s">
+        <v>393</v>
+      </c>
+      <c r="J48" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10">
+      <c r="C49" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" t="s">
+        <v>248</v>
+      </c>
+      <c r="E49" t="s">
+        <v>295</v>
+      </c>
+      <c r="F49" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>MOUFID.MOHAMED@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="1"/>
+        <v>MOUFID.MOHAMED@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H49" t="s">
+        <v>367</v>
+      </c>
+      <c r="I49" t="s">
+        <v>393</v>
+      </c>
+      <c r="J49" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10">
+      <c r="C50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" t="s">
+        <v>248</v>
+      </c>
+      <c r="E50" t="s">
+        <v>296</v>
+      </c>
+      <c r="F50" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>MOUSTAID.DRISS@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
+        <v>MOUSTAID.DRISS@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H50" t="s">
+        <v>368</v>
+      </c>
+      <c r="I50" t="s">
+        <v>393</v>
+      </c>
+      <c r="J50" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10">
+      <c r="C51" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" t="s">
+        <v>248</v>
+      </c>
+      <c r="E51" t="s">
+        <v>297</v>
+      </c>
+      <c r="F51" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>NABLI.MOHAMMED@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="1"/>
+        <v>NABLI.MOHAMMED@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H51" t="s">
+        <v>369</v>
+      </c>
+      <c r="I51" t="s">
+        <v>393</v>
+      </c>
+      <c r="J51" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10">
+      <c r="C52" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" t="s">
+        <v>248</v>
+      </c>
+      <c r="E52" t="s">
+        <v>298</v>
+      </c>
+      <c r="F52" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>NAIM.LEILA@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="1"/>
+        <v>NAIM.LEILA@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H52" t="s">
+        <v>370</v>
+      </c>
+      <c r="I52" t="s">
+        <v>394</v>
+      </c>
+      <c r="J52" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10">
+      <c r="C53" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" t="s">
+        <v>248</v>
+      </c>
+      <c r="E53" t="s">
+        <v>299</v>
+      </c>
+      <c r="F53" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>NAJI.ABDELWAHAB@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="1"/>
+        <v>NAJI.ABDELWAHAB@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H53" t="s">
+        <v>371</v>
+      </c>
+      <c r="I53" t="s">
+        <v>393</v>
+      </c>
+      <c r="J53" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10">
+      <c r="C54" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" t="s">
+        <v>248</v>
+      </c>
+      <c r="E54" t="s">
+        <v>300</v>
+      </c>
+      <c r="F54" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>NAJOUA.AOUATIF@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="1"/>
+        <v>NAJOUA.AOUATIF@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H54" t="s">
+        <v>372</v>
+      </c>
+      <c r="I54" t="s">
+        <v>394</v>
+      </c>
+      <c r="J54" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10">
+      <c r="C55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" t="s">
+        <v>248</v>
+      </c>
+      <c r="E55" t="s">
+        <v>301</v>
+      </c>
+      <c r="F55" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>NASSEF.ABDERRAHIM@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="1"/>
+        <v>NASSEF.ABDERRAHIM@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H55" t="s">
+        <v>373</v>
+      </c>
+      <c r="I55" t="s">
+        <v>393</v>
+      </c>
+      <c r="J55" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10">
+      <c r="C56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" t="s">
+        <v>248</v>
+      </c>
+      <c r="E56" t="s">
+        <v>302</v>
+      </c>
+      <c r="F56" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>OUAJJI.HASSAN@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="1"/>
+        <v>OUAJJI.HASSAN@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H56" t="s">
+        <v>374</v>
+      </c>
+      <c r="I56" t="s">
+        <v>393</v>
+      </c>
+      <c r="J56" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10">
+      <c r="C57" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" t="s">
+        <v>248</v>
+      </c>
+      <c r="E57" t="s">
+        <v>303</v>
+      </c>
+      <c r="F57" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>OUAKKACH.ABDELKRIM@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="1"/>
+        <v>OUAKKACH.ABDELKRIM@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H57" t="s">
+        <v>375</v>
+      </c>
+      <c r="I57" t="s">
+        <v>393</v>
+      </c>
+      <c r="J57" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10">
+      <c r="C58" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" t="s">
+        <v>248</v>
+      </c>
+      <c r="E58" t="s">
+        <v>304</v>
+      </c>
+      <c r="F58" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>QBADOU.MOHAMMED@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="1"/>
+        <v>QBADOU.MOHAMMED@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H58" t="s">
+        <v>376</v>
+      </c>
+      <c r="I58" t="s">
+        <v>393</v>
+      </c>
+      <c r="J58" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10">
+      <c r="C59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" t="s">
+        <v>248</v>
+      </c>
+      <c r="E59" t="s">
+        <v>305</v>
+      </c>
+      <c r="F59" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>RAFIK.MOHAMMED@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="1"/>
+        <v>RAFIK.MOHAMMED@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H59" t="s">
+        <v>377</v>
+      </c>
+      <c r="I59" t="s">
+        <v>393</v>
+      </c>
+      <c r="J59" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10">
+      <c r="C60" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" t="s">
+        <v>248</v>
+      </c>
+      <c r="E60" t="s">
+        <v>306</v>
+      </c>
+      <c r="F60" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>RAIHANI.ABDELHADI@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="1"/>
+        <v>RAIHANI.ABDELHADI@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H60" t="s">
+        <v>378</v>
+      </c>
+      <c r="I60" t="s">
+        <v>393</v>
+      </c>
+      <c r="J60" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10">
+      <c r="C61" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" t="s">
+        <v>248</v>
+      </c>
+      <c r="E61" t="s">
+        <v>307</v>
+      </c>
+      <c r="F61" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>REBBANI.AHMED@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="1"/>
+        <v>REBBANI.AHMED@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H61" t="s">
+        <v>379</v>
+      </c>
+      <c r="I61" t="s">
+        <v>393</v>
+      </c>
+      <c r="J61" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="62" spans="3:10">
+      <c r="C62" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" t="s">
+        <v>248</v>
+      </c>
+      <c r="E62" t="s">
+        <v>308</v>
+      </c>
+      <c r="F62" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>RIAD.ZAHRA@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="1"/>
+        <v>RIAD.ZAHRA@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H62" t="s">
+        <v>380</v>
+      </c>
+      <c r="I62" t="s">
+        <v>394</v>
+      </c>
+      <c r="J62" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10">
+      <c r="C63" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63" t="s">
+        <v>248</v>
+      </c>
+      <c r="E63" t="s">
+        <v>309</v>
+      </c>
+      <c r="F63" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMRI.HASSAN@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="1"/>
+        <v>SAMRI.HASSAN@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H63" t="s">
+        <v>381</v>
+      </c>
+      <c r="I63" t="s">
+        <v>393</v>
+      </c>
+      <c r="J63" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10">
+      <c r="C64" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>248</v>
+      </c>
+      <c r="E64" t="s">
+        <v>310</v>
+      </c>
+      <c r="F64" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>SOULAMI.MAHA@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="1"/>
+        <v>SOULAMI.MAHA@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H64" t="s">
+        <v>382</v>
+      </c>
+      <c r="I64" t="s">
+        <v>394</v>
+      </c>
+      <c r="J64" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10">
+      <c r="C65" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" t="s">
+        <v>248</v>
+      </c>
+      <c r="E65" t="s">
+        <v>311</v>
+      </c>
+      <c r="F65" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>TADLAOUI.AHMED@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="1"/>
+        <v>TADLAOUI.AHMED@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H65" t="s">
+        <v>383</v>
+      </c>
+      <c r="I65" t="s">
+        <v>393</v>
+      </c>
+      <c r="J65" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10">
+      <c r="C66" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66" t="s">
+        <v>248</v>
+      </c>
+      <c r="E66" t="s">
+        <v>312</v>
+      </c>
+      <c r="F66" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>TAKI EDDINE.NAJIB@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="1"/>
+        <v>TAKI EDDINE.NAJIB@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H66" t="s">
+        <v>384</v>
+      </c>
+      <c r="I66" t="s">
+        <v>393</v>
+      </c>
+      <c r="J66" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="67" spans="3:10">
+      <c r="C67" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3">
-      <c r="C29" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3">
-      <c r="C30" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3">
-      <c r="C31" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3">
-      <c r="C32" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3">
-      <c r="C35" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3">
-      <c r="C36" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3">
-      <c r="C37" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3">
-      <c r="C38" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3">
-      <c r="C39" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3">
-      <c r="C40" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3">
-      <c r="C41" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3">
-      <c r="C42" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3">
-      <c r="C43" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3">
-      <c r="C44" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3">
-      <c r="C45" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3">
-      <c r="C46" s="2" t="s">
+      <c r="D67" t="s">
+        <v>248</v>
+      </c>
+      <c r="E67" t="s">
+        <v>313</v>
+      </c>
+      <c r="F67" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>YOUSSFI.MOHAMED@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="1"/>
+        <v>YOUSSFI.MOHAMED@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H67" t="s">
+        <v>385</v>
+      </c>
+      <c r="I67" t="s">
+        <v>393</v>
+      </c>
+      <c r="J67" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10">
+      <c r="C68" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" t="s">
+        <v>248</v>
+      </c>
+      <c r="E68" t="s">
+        <v>314</v>
+      </c>
+      <c r="F68" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>ZAGGAF.MOHAMMED HICHAM@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="1"/>
+        <v>ZAGGAF.MOHAMMED HICHAM@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H68" t="s">
+        <v>386</v>
+      </c>
+      <c r="I68" t="s">
+        <v>393</v>
+      </c>
+      <c r="J68" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10">
+      <c r="C69" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D69" t="s">
+        <v>249</v>
+      </c>
+      <c r="E69" t="s">
+        <v>315</v>
+      </c>
+      <c r="F69" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>ZAKI.NAOUAL@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="1"/>
+        <v>ZAKI.NAOUAL@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H69" t="s">
+        <v>387</v>
+      </c>
+      <c r="I69" t="s">
+        <v>394</v>
+      </c>
+      <c r="J69" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="70" spans="3:10">
+      <c r="C70" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" t="s">
+        <v>248</v>
+      </c>
+      <c r="E70" t="s">
+        <v>316</v>
+      </c>
+      <c r="F70" s="13" t="str">
+        <f t="shared" ref="F70:F73" si="2">_xlfn.CONCAT(SUBSTITUTE(C70, "_", "."),"@etu.enset-media.ac.ma")</f>
+        <v>ZAMMA.ABDELLAH@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" ref="G70:G73" si="3">F70</f>
+        <v>ZAMMA.ABDELLAH@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H70" t="s">
+        <v>388</v>
+      </c>
+      <c r="I70" t="s">
+        <v>393</v>
+      </c>
+      <c r="J70" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10">
+      <c r="C71" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="47" spans="3:3">
-      <c r="C47" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3">
-      <c r="C48" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3">
-      <c r="C49" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3">
-      <c r="C50" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3">
-      <c r="C51" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3">
-      <c r="C52" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3">
-      <c r="C53" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3">
-      <c r="C54" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3">
-      <c r="C55" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3">
-      <c r="C56" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3">
-      <c r="C57" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3">
-      <c r="C58" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3">
-      <c r="C59" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3">
-      <c r="C60" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3">
-      <c r="C61" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="3:3">
-      <c r="C62" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="3:3">
-      <c r="C63" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="3:3">
-      <c r="C64" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3">
-      <c r="C65" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="3:3">
-      <c r="C66" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="3:3">
-      <c r="C67" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3">
-      <c r="C68" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="3:3">
-      <c r="C69" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3">
-      <c r="C70" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3">
-      <c r="C71" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3">
-      <c r="C72" s="9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="73" spans="3:3">
-      <c r="C73" s="9" t="s">
-        <v>206</v>
+      <c r="D71" t="s">
+        <v>248</v>
+      </c>
+      <c r="E71" t="s">
+        <v>317</v>
+      </c>
+      <c r="F71" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>ZERHOUNY ABDOUH.HANANE@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="3"/>
+        <v>ZERHOUNY ABDOUH.HANANE@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H71" t="s">
+        <v>389</v>
+      </c>
+      <c r="I71" t="s">
+        <v>393</v>
+      </c>
+      <c r="J71" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10">
+      <c r="C72" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D72" t="s">
+        <v>248</v>
+      </c>
+      <c r="E72" t="s">
+        <v>318</v>
+      </c>
+      <c r="F72" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>BOUSLHAM.ABDELMAJID@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="3"/>
+        <v>BOUSLHAM.ABDELMAJID@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H72" t="s">
+        <v>390</v>
+      </c>
+      <c r="I72" t="s">
+        <v>393</v>
+      </c>
+      <c r="J72" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="73" spans="3:10">
+      <c r="C73" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D73" t="s">
+        <v>248</v>
+      </c>
+      <c r="E73" t="s">
+        <v>319</v>
+      </c>
+      <c r="F73" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>ZAKARIA.ENNAIMANI@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="3"/>
+        <v>ZAKARIA.ENNAIMANI@etu.enset-media.ac.ma</v>
+      </c>
+      <c r="H73" t="s">
+        <v>391</v>
+      </c>
+      <c r="I73" t="s">
+        <v>393</v>
+      </c>
+      <c r="J73" t="s">
+        <v>396</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C5:C71">
     <sortCondition ref="C5:C71"/>
   </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1" display="ABBADI.LOUBNA@gmail.com" xr:uid="{A2A02F61-F3A1-49CC-816F-1CA232AD209C}"/>
+    <hyperlink ref="F6:F73" r:id="rId2" display="ABBADI.LOUBNA@gmail.com" xr:uid="{3373C4EA-0E28-4137-AC53-6A2C8840CEAB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1624,7 +3710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{779942B0-0B7F-4556-8888-7ED49D3C1B25}">
   <dimension ref="C4:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
+    <sheetView topLeftCell="B52" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -1635,22 +3721,22 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:5">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>246</v>
+      <c r="E4" s="6" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="3:5">
       <c r="C5" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E5">
         <v>85</v>
@@ -1658,10 +3744,10 @@
     </row>
     <row r="6" spans="3:5">
       <c r="C6" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E6">
         <v>85</v>
@@ -1669,10 +3755,10 @@
     </row>
     <row r="7" spans="3:5">
       <c r="C7" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E7">
         <v>85</v>
@@ -1680,10 +3766,10 @@
     </row>
     <row r="8" spans="3:5">
       <c r="C8" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E8">
         <v>85</v>
@@ -1691,10 +3777,10 @@
     </row>
     <row r="9" spans="3:5">
       <c r="C9" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E9">
         <v>85</v>
@@ -1702,10 +3788,10 @@
     </row>
     <row r="10" spans="3:5">
       <c r="C10" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E10">
         <v>45</v>
@@ -1713,10 +3799,10 @@
     </row>
     <row r="11" spans="3:5">
       <c r="C11" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E11">
         <v>45</v>
@@ -1724,10 +3810,10 @@
     </row>
     <row r="12" spans="3:5">
       <c r="C12" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E12">
         <v>45</v>
@@ -1735,10 +3821,10 @@
     </row>
     <row r="13" spans="3:5">
       <c r="C13" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E13">
         <v>45</v>
@@ -1746,10 +3832,10 @@
     </row>
     <row r="14" spans="3:5">
       <c r="C14" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E14">
         <v>85</v>
@@ -1757,10 +3843,10 @@
     </row>
     <row r="15" spans="3:5">
       <c r="C15" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E15">
         <v>45</v>
@@ -1768,10 +3854,10 @@
     </row>
     <row r="16" spans="3:5">
       <c r="C16" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E16">
         <v>45</v>
@@ -1779,10 +3865,10 @@
     </row>
     <row r="17" spans="3:5">
       <c r="C17" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E17">
         <v>45</v>
@@ -1790,10 +3876,10 @@
     </row>
     <row r="18" spans="3:5">
       <c r="C18" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E18">
         <v>45</v>
@@ -1801,10 +3887,10 @@
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E19">
         <v>45</v>
@@ -1812,10 +3898,10 @@
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>238</v>
+        <v>229</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>236</v>
       </c>
       <c r="E20">
         <v>85</v>
@@ -1823,10 +3909,10 @@
     </row>
     <row r="21" spans="3:5">
       <c r="C21" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D21" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E21">
         <v>85</v>
@@ -1834,10 +3920,10 @@
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D22" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E22">
         <v>85</v>
@@ -1845,10 +3931,10 @@
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D23" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E23">
         <v>85</v>
@@ -1856,10 +3942,10 @@
     </row>
     <row r="24" spans="3:5">
       <c r="C24" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D24" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E24">
         <v>85</v>
@@ -1867,10 +3953,10 @@
     </row>
     <row r="25" spans="3:5">
       <c r="C25" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D25" t="s">
         <v>239</v>
-      </c>
-      <c r="D25" t="s">
-        <v>241</v>
       </c>
       <c r="E25">
         <v>44</v>
@@ -1878,10 +3964,10 @@
     </row>
     <row r="26" spans="3:5">
       <c r="C26" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D26" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E26">
         <v>44</v>
@@ -1889,10 +3975,10 @@
     </row>
     <row r="27" spans="3:5">
       <c r="C27" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D27" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E27">
         <v>44</v>
@@ -1900,10 +3986,10 @@
     </row>
     <row r="28" spans="3:5">
       <c r="C28" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D28" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E28">
         <v>44</v>
@@ -1911,10 +3997,10 @@
     </row>
     <row r="29" spans="3:5">
       <c r="C29" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D29" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E29">
         <v>44</v>
@@ -1922,10 +4008,10 @@
     </row>
     <row r="30" spans="3:5">
       <c r="C30" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D30" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E30">
         <v>44</v>
@@ -1940,10 +4026,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9440788B-F075-4906-AEF1-F1D379CBA878}">
-  <dimension ref="B1:G87"/>
+  <dimension ref="B1:H86"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1953,1334 +4039,1485 @@
     <col min="5" max="5" width="47.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:8">
       <c r="B1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8">
       <c r="B2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
+        <v>199</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
       <c r="B7" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>38</v>
+        <v>91</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="2:7">
+      <c r="H7" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="13"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G8" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="2:7">
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9" s="14"/>
       <c r="C9" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>59</v>
+        <v>92</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="2:7">
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="13"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="2:7">
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11" s="14"/>
       <c r="C11" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>63</v>
+        <v>93</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="2:7">
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="2:8">
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="13"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="2:7">
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="2:8">
       <c r="B13" s="14"/>
       <c r="C13" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>75</v>
+        <v>94</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G13" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="2:7">
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="2:8">
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G14" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="2:7">
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="2:8">
       <c r="B15" s="14"/>
       <c r="C15" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="G15" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="2:7">
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
-      <c r="D16" s="13"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G16" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="2:7">
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17" s="14"/>
       <c r="C17" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>45</v>
+        <v>96</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="2:7">
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="13"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="2:7">
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19" s="14"/>
       <c r="C19" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>79</v>
+        <v>97</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G19" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="2:7">
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="2:8">
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
-      <c r="D20" s="13"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="2:7">
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="2:8">
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="12"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="2:7">
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="2:8">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
-      <c r="D22" s="13"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="2:7">
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="2:8">
       <c r="B23" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>36</v>
+        <v>98</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G23" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="2:7">
+      <c r="H23" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
-      <c r="D24" s="13"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G24" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="2:7">
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="2:8">
       <c r="B25" s="14"/>
       <c r="C25" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>80</v>
+        <v>99</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G25" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="2:7">
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="2:8">
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
-      <c r="D26" s="13"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G26" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="2:7">
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="2:8">
       <c r="B27" s="14"/>
       <c r="C27" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>33</v>
+        <v>100</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="2:7">
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="2:8">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
-      <c r="D28" s="13"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G28" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="2:7">
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="2:8">
       <c r="B29" s="14"/>
       <c r="C29" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>53</v>
+        <v>101</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G29" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="2:7">
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="2:8">
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
-      <c r="D30" s="13"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G30" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="2:7">
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="2:8">
       <c r="B31" s="14"/>
       <c r="C31" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>72</v>
+        <v>102</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G31" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="2:7">
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="2:8">
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
-      <c r="D32" s="13"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G32" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="2:7">
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" spans="2:8">
       <c r="B33" s="14"/>
       <c r="C33" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>18</v>
+        <v>103</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G33" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="2:7">
+      <c r="H33" s="14"/>
+    </row>
+    <row r="34" spans="2:8">
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
-      <c r="D34" s="13"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G34" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="2:7">
+      <c r="H34" s="14"/>
+    </row>
+    <row r="35" spans="2:8">
       <c r="B35" s="14"/>
       <c r="C35" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>54</v>
+        <v>104</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G35" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="2:7">
+      <c r="H35" s="14"/>
+    </row>
+    <row r="36" spans="2:8">
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
-      <c r="D36" s="13"/>
+      <c r="D36" s="16"/>
       <c r="E36" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G36" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="2:7">
+      <c r="H36" s="14"/>
+    </row>
+    <row r="37" spans="2:8">
       <c r="B37" s="14"/>
       <c r="C37" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>82</v>
+        <v>105</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G37" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:7">
+      <c r="H37" s="14"/>
+    </row>
+    <row r="38" spans="2:8">
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="8"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="7"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="2:7">
+      <c r="H38" s="14"/>
+    </row>
+    <row r="39" spans="2:8">
       <c r="B39" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>33</v>
+        <v>106</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G39" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="2:7">
+      <c r="H39" s="14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
-      <c r="D40" s="13"/>
+      <c r="D40" s="16"/>
       <c r="E40" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G40" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="2:7">
+      <c r="H40" s="14"/>
+    </row>
+    <row r="41" spans="2:8">
       <c r="B41" s="14"/>
       <c r="C41" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>72</v>
+        <v>107</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G41" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:7">
+      <c r="H41" s="14"/>
+    </row>
+    <row r="42" spans="2:8">
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
-      <c r="D42" s="13"/>
+      <c r="D42" s="16"/>
       <c r="E42" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G42" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:7">
+      <c r="H42" s="14"/>
+    </row>
+    <row r="43" spans="2:8">
       <c r="B43" s="14"/>
       <c r="C43" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>53</v>
+        <v>108</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G43" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="2:7">
+      <c r="H43" s="14"/>
+    </row>
+    <row r="44" spans="2:8">
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
-      <c r="D44" s="13"/>
+      <c r="D44" s="16"/>
       <c r="E44" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G44" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="2:7">
+      <c r="H44" s="14"/>
+    </row>
+    <row r="45" spans="2:8">
       <c r="B45" s="14"/>
       <c r="C45" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>80</v>
+        <v>109</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G45" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:7">
+      <c r="H45" s="14"/>
+    </row>
+    <row r="46" spans="2:8">
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
-      <c r="D46" s="13"/>
+      <c r="D46" s="16"/>
       <c r="E46" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G46" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:7">
+      <c r="H46" s="14"/>
+    </row>
+    <row r="47" spans="2:8">
       <c r="B47" s="14"/>
       <c r="C47" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>75</v>
+        <v>110</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G47" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:7">
+      <c r="H47" s="14"/>
+    </row>
+    <row r="48" spans="2:8">
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
-      <c r="D48" s="13"/>
+      <c r="D48" s="16"/>
       <c r="E48" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G48" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="2:7">
+      <c r="H48" s="14"/>
+    </row>
+    <row r="49" spans="2:8">
       <c r="B49" s="14"/>
       <c r="C49" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>18</v>
+        <v>111</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G49" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="2:7">
+      <c r="H49" s="14"/>
+    </row>
+    <row r="50" spans="2:8">
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
-      <c r="D50" s="13"/>
+      <c r="D50" s="16"/>
       <c r="E50" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G50" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="51" spans="2:7">
+      <c r="H50" s="14"/>
+    </row>
+    <row r="51" spans="2:8">
       <c r="B51" s="14"/>
       <c r="C51" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>79</v>
+        <v>112</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G51" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="52" spans="2:7">
+      <c r="H51" s="14"/>
+    </row>
+    <row r="52" spans="2:8">
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
-      <c r="D52" s="13"/>
+      <c r="D52" s="16"/>
       <c r="E52" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G52" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="2:7">
+      <c r="H52" s="14"/>
+    </row>
+    <row r="53" spans="2:8">
       <c r="B53" s="14"/>
       <c r="C53" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>38</v>
+        <v>113</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F53" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="G53" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:7">
+      <c r="H53" s="14"/>
+    </row>
+    <row r="54" spans="2:8">
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="8"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="7"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="2:7">
+      <c r="H54" s="14"/>
+    </row>
+    <row r="55" spans="2:8">
       <c r="B55" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>33</v>
+        <v>114</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G55" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="56" spans="2:7">
+      <c r="H55" s="14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
-      <c r="D56" s="13"/>
+      <c r="D56" s="16"/>
       <c r="E56" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G56" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="2:7">
+      <c r="H56" s="14"/>
+    </row>
+    <row r="57" spans="2:8">
       <c r="B57" s="14"/>
       <c r="C57" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>75</v>
+        <v>115</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G57" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="2:7">
+      <c r="H57" s="14"/>
+    </row>
+    <row r="58" spans="2:8">
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
-      <c r="D58" s="13"/>
+      <c r="D58" s="16"/>
       <c r="E58" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G58" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="2:7">
+      <c r="H58" s="14"/>
+    </row>
+    <row r="59" spans="2:8">
       <c r="B59" s="14"/>
       <c r="C59" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>72</v>
+        <v>116</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G59" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="2:7">
+      <c r="H59" s="14"/>
+    </row>
+    <row r="60" spans="2:8">
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
-      <c r="D60" s="13"/>
+      <c r="D60" s="16"/>
       <c r="E60" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G60" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="2:7">
+      <c r="H60" s="14"/>
+    </row>
+    <row r="61" spans="2:8">
       <c r="B61" s="14"/>
       <c r="C61" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>84</v>
+        <v>117</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G61" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="62" spans="2:7">
+      <c r="H61" s="14"/>
+    </row>
+    <row r="62" spans="2:8">
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
-      <c r="D62" s="13"/>
+      <c r="D62" s="16"/>
       <c r="E62" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G62" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="2:7">
+      <c r="H62" s="14"/>
+    </row>
+    <row r="63" spans="2:8">
       <c r="B63" s="14"/>
       <c r="C63" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>53</v>
+        <v>118</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G63" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="64" spans="2:7">
+      <c r="H63" s="14"/>
+    </row>
+    <row r="64" spans="2:8">
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
-      <c r="D64" s="13"/>
+      <c r="D64" s="16"/>
       <c r="E64" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G64" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:7">
+      <c r="H64" s="14"/>
+    </row>
+    <row r="65" spans="2:8">
       <c r="B65" s="14"/>
       <c r="C65" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>45</v>
+        <v>119</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G65" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="66" spans="2:7">
+      <c r="H65" s="14"/>
+    </row>
+    <row r="66" spans="2:8">
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
-      <c r="D66" s="13"/>
+      <c r="D66" s="16"/>
       <c r="E66" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G66" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="2:7">
+      <c r="H66" s="14"/>
+    </row>
+    <row r="67" spans="2:8">
       <c r="B67" s="14"/>
       <c r="C67" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>54</v>
+        <v>120</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G67" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="68" spans="2:7">
+      <c r="H67" s="14"/>
+    </row>
+    <row r="68" spans="2:8">
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
-      <c r="D68" s="13"/>
+      <c r="D68" s="16"/>
       <c r="E68" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G68" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="69" spans="2:7">
+      <c r="H68" s="14"/>
+    </row>
+    <row r="69" spans="2:8">
       <c r="B69" s="14"/>
       <c r="C69" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>49</v>
+        <v>121</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G69" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:7">
+      <c r="H69" s="14"/>
+    </row>
+    <row r="70" spans="2:8">
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
-      <c r="D70" s="13"/>
+      <c r="D70" s="16"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-    </row>
-    <row r="71" spans="2:7">
+      <c r="H70" s="14"/>
+    </row>
+    <row r="71" spans="2:8">
       <c r="B71" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>63</v>
+        <v>122</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G71" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="72" spans="2:7">
+      <c r="H71" s="14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
-      <c r="D72" s="13"/>
+      <c r="D72" s="16"/>
       <c r="E72" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G72" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:7">
+      <c r="H72" s="14"/>
+    </row>
+    <row r="73" spans="2:8">
       <c r="B73" s="14"/>
       <c r="C73" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>33</v>
+        <v>123</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G73" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="74" spans="2:7">
+      <c r="H73" s="14"/>
+    </row>
+    <row r="74" spans="2:8">
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
-      <c r="D74" s="13"/>
+      <c r="D74" s="16"/>
       <c r="E74" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G74" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="2:7">
+      <c r="H74" s="14"/>
+    </row>
+    <row r="75" spans="2:8">
       <c r="B75" s="14"/>
       <c r="C75" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>33</v>
+        <v>124</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G75" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="2:7">
+      <c r="H75" s="14"/>
+    </row>
+    <row r="76" spans="2:8">
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
-      <c r="D76" s="13"/>
+      <c r="D76" s="16"/>
       <c r="E76" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G76" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:7">
+      <c r="H76" s="14"/>
+    </row>
+    <row r="77" spans="2:8">
       <c r="B77" s="14"/>
       <c r="C77" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>75</v>
+        <v>125</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G77" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="2:7">
+      <c r="H77" s="14"/>
+    </row>
+    <row r="78" spans="2:8">
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
-      <c r="D78" s="13"/>
+      <c r="D78" s="16"/>
       <c r="E78" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G78" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="79" spans="2:7">
+      <c r="H78" s="14"/>
+    </row>
+    <row r="79" spans="2:8">
       <c r="B79" s="14"/>
       <c r="C79" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>72</v>
+        <v>126</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G79" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="2:7">
+      <c r="H79" s="14"/>
+    </row>
+    <row r="80" spans="2:8">
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
-      <c r="D80" s="13"/>
+      <c r="D80" s="16"/>
       <c r="E80" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G80" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="2:7">
+      <c r="H80" s="14"/>
+    </row>
+    <row r="81" spans="2:8">
       <c r="B81" s="14"/>
       <c r="C81" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>45</v>
+        <v>127</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G81" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="82" spans="2:7">
+      <c r="H81" s="14"/>
+    </row>
+    <row r="82" spans="2:8">
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
-      <c r="D82" s="13"/>
+      <c r="D82" s="16"/>
       <c r="E82" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G82" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="83" spans="2:7">
+      <c r="H82" s="14"/>
+    </row>
+    <row r="83" spans="2:8">
       <c r="B83" s="14"/>
       <c r="C83" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>67</v>
+        <v>128</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G83" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="2:7">
+      <c r="H83" s="14"/>
+    </row>
+    <row r="84" spans="2:8">
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
-      <c r="D84" s="13"/>
+      <c r="D84" s="16"/>
       <c r="E84" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G84" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="85" spans="2:7">
+      <c r="H84" s="14"/>
+    </row>
+    <row r="85" spans="2:8">
       <c r="B85" s="14"/>
       <c r="C85" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>63</v>
+        <v>129</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F85" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="G85" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="2:7">
+      <c r="H85" s="14"/>
+    </row>
+    <row r="86" spans="2:8">
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
-      <c r="D86" s="13"/>
+      <c r="D86" s="16"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
-    </row>
-    <row r="87" spans="2:7">
-      <c r="B87" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D87" s="6"/>
-      <c r="E87" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2">
-        <v>0</v>
-      </c>
+      <c r="H86" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="85">
+  <mergeCells count="90">
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B71:B86"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B55:B70"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B54"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="B7:B22"/>
@@ -3297,76 +5534,17 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B39:B54"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B71:B86"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B55:B70"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="H71:H86"/>
+    <mergeCell ref="H7:H22"/>
+    <mergeCell ref="H23:H38"/>
+    <mergeCell ref="H39:H54"/>
+    <mergeCell ref="H55:H70"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H86" xr:uid="{BF2DB7BD-0758-4EA8-B9D0-56C225948918}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -3376,7 +5554,7 @@
           <x14:formula1>
             <xm:f>ENSEIGNANTS!$C$5:$C$71</xm:f>
           </x14:formula1>
-          <xm:sqref>F7:F87 D7:D86</xm:sqref>
+          <xm:sqref>D7:D86 F7:F86</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3386,10 +5564,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733F3413-EE9F-4359-8AAE-13133F084F61}">
-  <dimension ref="B1:G87"/>
+  <dimension ref="B1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="B67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3399,1334 +5577,1485 @@
     <col min="5" max="5" width="47.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:8">
       <c r="B1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8">
+      <c r="B2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="2" spans="2:7">
-      <c r="B2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
+        <v>199</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
       <c r="B7" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>38</v>
+        <v>91</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="2:7">
+      <c r="H7" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="16"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G8" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="2:7">
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9" s="14"/>
       <c r="C9" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>59</v>
+        <v>92</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="2:7">
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="13"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="2:7">
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11" s="14"/>
       <c r="C11" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>63</v>
+        <v>93</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="2:7">
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="2:8">
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="13"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="2:7">
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="2:8">
       <c r="B13" s="14"/>
       <c r="C13" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>75</v>
+        <v>94</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G13" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="2:7">
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="2:8">
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G14" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="2:7">
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="2:8">
       <c r="B15" s="14"/>
       <c r="C15" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="G15" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="2:7">
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
-      <c r="D16" s="13"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G16" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="2:7">
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17" s="14"/>
       <c r="C17" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>45</v>
+        <v>96</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="2:7">
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="13"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="2:7">
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19" s="14"/>
       <c r="C19" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>79</v>
+        <v>97</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G19" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="2:7">
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="2:8">
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
-      <c r="D20" s="13"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="2:7">
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="2:8">
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="12"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="2:7">
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="2:8">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
-      <c r="D22" s="13"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="2:7">
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="2:8">
       <c r="B23" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>36</v>
+        <v>98</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G23" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="2:7">
+      <c r="H23" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
-      <c r="D24" s="13"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G24" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="2:7">
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="2:8">
       <c r="B25" s="14"/>
       <c r="C25" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>80</v>
+        <v>99</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G25" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="2:7">
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="2:8">
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
-      <c r="D26" s="13"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G26" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="2:7">
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="2:8">
       <c r="B27" s="14"/>
       <c r="C27" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>33</v>
+        <v>100</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="2:7">
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="2:8">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
-      <c r="D28" s="13"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G28" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="2:7">
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="2:8">
       <c r="B29" s="14"/>
       <c r="C29" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>53</v>
+        <v>101</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G29" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="2:7">
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="2:8">
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
-      <c r="D30" s="13"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G30" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="2:7">
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="2:8">
       <c r="B31" s="14"/>
       <c r="C31" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>72</v>
+        <v>102</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G31" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="2:7">
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="2:8">
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
-      <c r="D32" s="13"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G32" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="2:7">
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" spans="2:8">
       <c r="B33" s="14"/>
       <c r="C33" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>18</v>
+        <v>103</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G33" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="2:7">
+      <c r="H33" s="14"/>
+    </row>
+    <row r="34" spans="2:8">
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
-      <c r="D34" s="13"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G34" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="2:7">
+      <c r="H34" s="14"/>
+    </row>
+    <row r="35" spans="2:8">
       <c r="B35" s="14"/>
       <c r="C35" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>54</v>
+        <v>104</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G35" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="2:7">
+      <c r="H35" s="14"/>
+    </row>
+    <row r="36" spans="2:8">
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
-      <c r="D36" s="13"/>
+      <c r="D36" s="16"/>
       <c r="E36" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G36" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="2:7">
+      <c r="H36" s="14"/>
+    </row>
+    <row r="37" spans="2:8">
       <c r="B37" s="14"/>
       <c r="C37" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>82</v>
+        <v>105</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G37" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:7">
+      <c r="H37" s="14"/>
+    </row>
+    <row r="38" spans="2:8">
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="8"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="7"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="2:7">
+      <c r="H38" s="14"/>
+    </row>
+    <row r="39" spans="2:8">
       <c r="B39" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>33</v>
+        <v>106</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G39" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="2:7">
+      <c r="H39" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
-      <c r="D40" s="13"/>
+      <c r="D40" s="16"/>
       <c r="E40" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G40" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="2:7">
+      <c r="H40" s="14"/>
+    </row>
+    <row r="41" spans="2:8">
       <c r="B41" s="14"/>
       <c r="C41" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>72</v>
+        <v>107</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G41" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:7">
+      <c r="H41" s="14"/>
+    </row>
+    <row r="42" spans="2:8">
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
-      <c r="D42" s="13"/>
+      <c r="D42" s="16"/>
       <c r="E42" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G42" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:7">
+      <c r="H42" s="14"/>
+    </row>
+    <row r="43" spans="2:8">
       <c r="B43" s="14"/>
       <c r="C43" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>53</v>
+        <v>108</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G43" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="2:7">
+      <c r="H43" s="14"/>
+    </row>
+    <row r="44" spans="2:8">
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
-      <c r="D44" s="13"/>
+      <c r="D44" s="16"/>
       <c r="E44" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G44" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="2:7">
+      <c r="H44" s="14"/>
+    </row>
+    <row r="45" spans="2:8">
       <c r="B45" s="14"/>
       <c r="C45" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>80</v>
+        <v>109</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G45" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:7">
+      <c r="H45" s="14"/>
+    </row>
+    <row r="46" spans="2:8">
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
-      <c r="D46" s="13"/>
+      <c r="D46" s="16"/>
       <c r="E46" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G46" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:7">
+      <c r="H46" s="14"/>
+    </row>
+    <row r="47" spans="2:8">
       <c r="B47" s="14"/>
       <c r="C47" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>75</v>
+        <v>110</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G47" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:7">
+      <c r="H47" s="14"/>
+    </row>
+    <row r="48" spans="2:8">
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
-      <c r="D48" s="13"/>
+      <c r="D48" s="16"/>
       <c r="E48" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G48" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="2:7">
+      <c r="H48" s="14"/>
+    </row>
+    <row r="49" spans="2:8">
       <c r="B49" s="14"/>
       <c r="C49" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>18</v>
+        <v>111</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G49" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="2:7">
+      <c r="H49" s="14"/>
+    </row>
+    <row r="50" spans="2:8">
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
-      <c r="D50" s="13"/>
+      <c r="D50" s="16"/>
       <c r="E50" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G50" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="51" spans="2:7">
+      <c r="H50" s="14"/>
+    </row>
+    <row r="51" spans="2:8">
       <c r="B51" s="14"/>
       <c r="C51" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>79</v>
+        <v>112</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G51" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="52" spans="2:7">
+      <c r="H51" s="14"/>
+    </row>
+    <row r="52" spans="2:8">
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
-      <c r="D52" s="13"/>
+      <c r="D52" s="16"/>
       <c r="E52" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G52" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="2:7">
+      <c r="H52" s="14"/>
+    </row>
+    <row r="53" spans="2:8">
       <c r="B53" s="14"/>
       <c r="C53" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>38</v>
+        <v>113</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F53" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="G53" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:7">
+      <c r="H53" s="14"/>
+    </row>
+    <row r="54" spans="2:8">
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="8"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="7"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="2:7">
+      <c r="H54" s="14"/>
+    </row>
+    <row r="55" spans="2:8">
       <c r="B55" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>33</v>
+        <v>114</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G55" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="56" spans="2:7">
+      <c r="H55" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
-      <c r="D56" s="13"/>
+      <c r="D56" s="16"/>
       <c r="E56" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G56" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="2:7">
+      <c r="H56" s="14"/>
+    </row>
+    <row r="57" spans="2:8">
       <c r="B57" s="14"/>
       <c r="C57" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>208</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G57" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="2:7">
+      <c r="H57" s="14"/>
+    </row>
+    <row r="58" spans="2:8">
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
-      <c r="D58" s="13"/>
+      <c r="D58" s="16"/>
       <c r="E58" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G58" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="2:7">
+      <c r="H58" s="14"/>
+    </row>
+    <row r="59" spans="2:8">
       <c r="B59" s="14"/>
       <c r="C59" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="D59" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>205</v>
+      <c r="F59" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="G59" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="2:7">
+      <c r="H59" s="14"/>
+    </row>
+    <row r="60" spans="2:8">
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
-      <c r="D60" s="13"/>
+      <c r="D60" s="16"/>
       <c r="E60" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="G60" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="2:7">
+      <c r="H60" s="14"/>
+    </row>
+    <row r="61" spans="2:8">
       <c r="B61" s="14"/>
       <c r="C61" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>84</v>
+        <v>117</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G61" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="62" spans="2:7">
+      <c r="H61" s="14"/>
+    </row>
+    <row r="62" spans="2:8">
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
-      <c r="D62" s="13"/>
+      <c r="D62" s="16"/>
       <c r="E62" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G62" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="2:7">
+      <c r="H62" s="14"/>
+    </row>
+    <row r="63" spans="2:8">
       <c r="B63" s="14"/>
       <c r="C63" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>206</v>
+        <v>201</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>204</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>206</v>
+        <v>118</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="G63" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="64" spans="2:7">
+      <c r="H63" s="14"/>
+    </row>
+    <row r="64" spans="2:8">
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
-      <c r="D64" s="13"/>
+      <c r="D64" s="16"/>
       <c r="E64" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>206</v>
+        <v>175</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="G64" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:7">
+      <c r="H64" s="14"/>
+    </row>
+    <row r="65" spans="2:8">
       <c r="B65" s="14"/>
       <c r="C65" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>45</v>
+        <v>119</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G65" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="66" spans="2:7">
+      <c r="H65" s="14"/>
+    </row>
+    <row r="66" spans="2:8">
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
-      <c r="D66" s="13"/>
+      <c r="D66" s="16"/>
       <c r="E66" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G66" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="2:7">
+      <c r="H66" s="14"/>
+    </row>
+    <row r="67" spans="2:8">
       <c r="B67" s="14"/>
       <c r="C67" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>54</v>
+        <v>120</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G67" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="68" spans="2:7">
+      <c r="H67" s="14"/>
+    </row>
+    <row r="68" spans="2:8">
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
-      <c r="D68" s="13"/>
+      <c r="D68" s="16"/>
       <c r="E68" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G68" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="69" spans="2:7">
+      <c r="H68" s="14"/>
+    </row>
+    <row r="69" spans="2:8">
       <c r="B69" s="14"/>
       <c r="C69" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>49</v>
+        <v>121</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G69" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:7">
+      <c r="H69" s="14"/>
+    </row>
+    <row r="70" spans="2:8">
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
-      <c r="D70" s="13"/>
+      <c r="D70" s="16"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-    </row>
-    <row r="71" spans="2:7">
+      <c r="H70" s="14"/>
+    </row>
+    <row r="71" spans="2:8">
       <c r="B71" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>63</v>
+        <v>122</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G71" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="72" spans="2:7">
+      <c r="H71" s="14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
-      <c r="D72" s="13"/>
+      <c r="D72" s="16"/>
       <c r="E72" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G72" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:7">
+      <c r="H72" s="14"/>
+    </row>
+    <row r="73" spans="2:8">
       <c r="B73" s="14"/>
       <c r="C73" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>33</v>
+        <v>123</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G73" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="74" spans="2:7">
+      <c r="H73" s="14"/>
+    </row>
+    <row r="74" spans="2:8">
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
-      <c r="D74" s="13"/>
+      <c r="D74" s="16"/>
       <c r="E74" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G74" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="2:7">
+      <c r="H74" s="14"/>
+    </row>
+    <row r="75" spans="2:8">
       <c r="B75" s="14"/>
       <c r="C75" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>33</v>
+        <v>124</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G75" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="2:7">
+      <c r="H75" s="14"/>
+    </row>
+    <row r="76" spans="2:8">
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
-      <c r="D76" s="13"/>
+      <c r="D76" s="16"/>
       <c r="E76" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G76" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:7">
+      <c r="H76" s="14"/>
+    </row>
+    <row r="77" spans="2:8">
       <c r="B77" s="14"/>
       <c r="C77" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>75</v>
+        <v>125</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G77" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="2:7">
+      <c r="H77" s="14"/>
+    </row>
+    <row r="78" spans="2:8">
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
-      <c r="D78" s="13"/>
+      <c r="D78" s="16"/>
       <c r="E78" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G78" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="79" spans="2:7">
+      <c r="H78" s="14"/>
+    </row>
+    <row r="79" spans="2:8">
       <c r="B79" s="14"/>
       <c r="C79" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>72</v>
+        <v>126</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G79" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="2:7">
+      <c r="H79" s="14"/>
+    </row>
+    <row r="80" spans="2:8">
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
-      <c r="D80" s="13"/>
+      <c r="D80" s="16"/>
       <c r="E80" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G80" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="2:7">
+      <c r="H80" s="14"/>
+    </row>
+    <row r="81" spans="2:8">
       <c r="B81" s="14"/>
       <c r="C81" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>45</v>
+        <v>127</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G81" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="82" spans="2:7">
+      <c r="H81" s="14"/>
+    </row>
+    <row r="82" spans="2:8">
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
-      <c r="D82" s="13"/>
+      <c r="D82" s="16"/>
       <c r="E82" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G82" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="83" spans="2:7">
+      <c r="H82" s="14"/>
+    </row>
+    <row r="83" spans="2:8">
       <c r="B83" s="14"/>
       <c r="C83" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>67</v>
+        <v>128</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G83" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="2:7">
+      <c r="H83" s="14"/>
+    </row>
+    <row r="84" spans="2:8">
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
-      <c r="D84" s="13"/>
+      <c r="D84" s="16"/>
       <c r="E84" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G84" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="85" spans="2:7">
+      <c r="H84" s="14"/>
+    </row>
+    <row r="85" spans="2:8">
       <c r="B85" s="14"/>
       <c r="C85" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>63</v>
+        <v>129</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F85" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="G85" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="2:7">
+      <c r="H85" s="14"/>
+    </row>
+    <row r="86" spans="2:8">
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
-      <c r="D86" s="13"/>
+      <c r="D86" s="16"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
-    </row>
-    <row r="87" spans="2:7">
-      <c r="B87" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D87" s="6"/>
-      <c r="E87" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2">
-        <v>0</v>
-      </c>
+      <c r="H86" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="85">
+  <mergeCells count="90">
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="B7:B22"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="B23:B38"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="B39:B54"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="B55:B70"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
     <mergeCell ref="D83:D84"/>
     <mergeCell ref="C85:C86"/>
     <mergeCell ref="D85:D86"/>
@@ -4743,76 +7072,17 @@
     <mergeCell ref="D79:D80"/>
     <mergeCell ref="C81:C82"/>
     <mergeCell ref="D81:D82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="B55:B70"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="B39:B54"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="B23:B38"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="B7:B22"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="H7:H22"/>
+    <mergeCell ref="H23:H38"/>
+    <mergeCell ref="H39:H54"/>
+    <mergeCell ref="H71:H86"/>
+    <mergeCell ref="H55:H70"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H71:H86 H39:H54 H23:H38 H7:H22" xr:uid="{2C247641-0AF4-46A2-B079-3D32E8606EEA}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -4822,7 +7092,7 @@
           <x14:formula1>
             <xm:f>ENSEIGNANTS!$C$5:$C$71</xm:f>
           </x14:formula1>
-          <xm:sqref>F7:F87</xm:sqref>
+          <xm:sqref>F7:F86</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F9FDABAB-E6EE-4758-9D81-43E8214FEEBA}">
           <x14:formula1>
